--- a/mvault-import-template.xlsx
+++ b/mvault-import-template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshespinoza/Documents/GitHub/mvault-uploader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D85CF931-27E8-C740-9564-3FE45BBECDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB267A3-E850-E743-BA48-A029D95FD508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="10740" windowWidth="27640" windowHeight="16940" xr2:uid="{793CB470-FCB2-E143-B7D2-6D0E1416CE96}"/>
+    <workbookView xWindow="30120" yWindow="6220" windowWidth="27640" windowHeight="16940" xr2:uid="{793CB470-FCB2-E143-B7D2-6D0E1416CE96}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="assets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,9 +64,6 @@
     <t>projected_eol_date</t>
   </si>
   <si>
-    <t>Purchase Price</t>
-  </si>
-  <si>
     <t>purchase_date</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>replacement_price</t>
+  </si>
+  <si>
+    <t>purchase_price</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -503,7 +520,7 @@
   <dimension ref="A1:P991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,16 +566,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
